--- a/ValidInputBatch2.xlsx
+++ b/ValidInputBatch2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Sudhakar\1.Scrapy\1.upwork\UP54-CONN\Scrapping Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5CE807-3158-4D5E-9C08-4BD233916E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232BF51-9E1B-4317-9C18-89B9E4F656CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2B97134-CDEF-4973-A4F6-746C7008ACBB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6882" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6882" uniqueCount="1762">
   <si>
     <t>Route start</t>
   </si>
@@ -5320,6 +5320,9 @@
   </si>
   <si>
     <t>ALTERNATE ID</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -5389,7 +5392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5707,7 +5710,7 @@
   <dimension ref="A1:G1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5724,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>

--- a/ValidInputBatch2.xlsx
+++ b/ValidInputBatch2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Sudhakar\1.Scrapy\1.upwork\UP54-CONN\Scrapping Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232BF51-9E1B-4317-9C18-89B9E4F656CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63048C9-4C89-4FA4-AFFF-0AB0DACC9098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2B97134-CDEF-4973-A4F6-746C7008ACBB}"/>
   </bookViews>
